--- a/Directline/Regdata/testdata.xlsx
+++ b/Directline/Regdata/testdata.xlsx
@@ -19,19 +19,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>OV12UYY</t>
   </si>
   <si>
     <t>Vehicle Regno:</t>
   </si>
+  <si>
+    <t>Direct Line TestData</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,8 +42,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -50,6 +60,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -66,9 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,19 +367,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -369,7 +387,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>